--- a/S6/Backpropagation.xlsx
+++ b/S6/Backpropagation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Self Learning\TSAI\TSAI\S6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D87890B9-6355-4CE8-97F1-FD92CA607D70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42576FA3-8D69-41DC-B7FD-B0689395F41C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="321" xr2:uid="{9439E314-D218-4DC1-801D-FD5CAA68FFFB}"/>
   </bookViews>
@@ -825,6 +825,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -834,37 +865,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -898,30 +898,24 @@
   <c:chart>
     <c:title>
       <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-IN"/>
-              <a:t>Loss</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
+        <c:strRef>
+          <c:f>'Back Prop'!$B$33</c:f>
+          <c:strCache>
+            <c:ptCount val="1"/>
+            <c:pt idx="0">
+              <c:v>1</c:v>
+            </c:pt>
+          </c:strCache>
+        </c:strRef>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.43566731124901525"/>
+          <c:y val="2.5571602500513445E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1368,6 +1362,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -4213,13 +4208,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>407894</xdr:colOff>
+      <xdr:colOff>385034</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>121024</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>103094</xdr:colOff>
+      <xdr:colOff>80234</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>174812</xdr:rowOff>
     </xdr:to>
@@ -4247,6 +4242,52 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.24474</cdr:x>
+      <cdr:y>0.02587</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.43735</cdr:x>
+      <cdr:y>0.1256</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FBDEE7D-42C6-12DE-BF75-3452B4A196CC}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1161826" y="77096"/>
+          <a:ext cx="914400" cy="297180"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100"/>
+            <a:t>Learning rate:</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4548,8 +4589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDFB8BA9-59B3-4D1C-829E-719B1F42A608}">
   <dimension ref="A2:AE102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4581,18 +4622,18 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="L3" s="12"/>
-      <c r="M3" s="13"/>
-      <c r="O3" s="5" t="s">
+      <c r="L3" s="11"/>
+      <c r="M3" s="12"/>
+      <c r="O3" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="7"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="23"/>
+      <c r="S3" s="24"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
@@ -4604,18 +4645,18 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="K4" s="14" t="s">
+      <c r="K4" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="L4" s="15"/>
-      <c r="M4" s="16"/>
-      <c r="O4" s="8" t="s">
+      <c r="L4" s="14"/>
+      <c r="M4" s="15"/>
+      <c r="O4" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="9"/>
-      <c r="S4" s="10"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="18"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
@@ -4627,18 +4668,18 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
-      <c r="K5" s="14" t="s">
+      <c r="K5" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="L5" s="15"/>
-      <c r="M5" s="16"/>
-      <c r="O5" s="8" t="s">
+      <c r="L5" s="14"/>
+      <c r="M5" s="15"/>
+      <c r="O5" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="9"/>
-      <c r="S5" s="10"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="18"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
@@ -4650,18 +4691,18 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-      <c r="K6" s="14" t="s">
+      <c r="K6" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="L6" s="15"/>
-      <c r="M6" s="16"/>
-      <c r="O6" s="8" t="s">
+      <c r="L6" s="14"/>
+      <c r="M6" s="15"/>
+      <c r="O6" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="10"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="18"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
@@ -4673,18 +4714,18 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="K7" s="14" t="s">
+      <c r="K7" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="L7" s="15"/>
-      <c r="M7" s="16"/>
-      <c r="O7" s="8" t="s">
+      <c r="L7" s="14"/>
+      <c r="M7" s="15"/>
+      <c r="O7" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="9"/>
-      <c r="S7" s="10"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="18"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
@@ -4696,18 +4737,18 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-      <c r="K8" s="14" t="s">
+      <c r="K8" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="L8" s="15"/>
-      <c r="M8" s="16"/>
-      <c r="O8" s="8" t="s">
+      <c r="L8" s="14"/>
+      <c r="M8" s="15"/>
+      <c r="O8" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="9"/>
-      <c r="S8" s="10"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="17"/>
+      <c r="S8" s="18"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
@@ -4719,18 +4760,18 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-      <c r="K9" s="14" t="s">
+      <c r="K9" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="L9" s="15"/>
-      <c r="M9" s="16"/>
-      <c r="O9" s="8" t="s">
+      <c r="L9" s="14"/>
+      <c r="M9" s="15"/>
+      <c r="O9" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="9"/>
-      <c r="S9" s="10"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="17"/>
+      <c r="S9" s="18"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
@@ -4742,18 +4783,18 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
-      <c r="K10" s="14" t="s">
+      <c r="K10" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="L10" s="15"/>
-      <c r="M10" s="16"/>
-      <c r="O10" s="20" t="s">
+      <c r="L10" s="14"/>
+      <c r="M10" s="15"/>
+      <c r="O10" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="P10" s="21"/>
-      <c r="Q10" s="21"/>
-      <c r="R10" s="21"/>
-      <c r="S10" s="22"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="21"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
@@ -4765,11 +4806,11 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-      <c r="K11" s="14" t="s">
+      <c r="K11" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="L11" s="15"/>
-      <c r="M11" s="16"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="15"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
@@ -4781,22 +4822,22 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-      <c r="K12" s="14" t="s">
+      <c r="K12" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="L12" s="15"/>
-      <c r="M12" s="16"/>
-      <c r="O12" s="11" t="s">
+      <c r="L12" s="14"/>
+      <c r="M12" s="15"/>
+      <c r="O12" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="12"/>
-      <c r="R12" s="12"/>
-      <c r="S12" s="12"/>
-      <c r="T12" s="12"/>
-      <c r="U12" s="12"/>
-      <c r="V12" s="12"/>
-      <c r="W12" s="13"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="12"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
@@ -4808,22 +4849,22 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
-      <c r="K13" s="17" t="s">
+      <c r="K13" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="L13" s="18"/>
-      <c r="M13" s="19"/>
-      <c r="O13" s="14" t="s">
+      <c r="L13" s="8"/>
+      <c r="M13" s="9"/>
+      <c r="O13" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="P13" s="15"/>
-      <c r="Q13" s="15"/>
-      <c r="R13" s="15"/>
-      <c r="S13" s="15"/>
-      <c r="T13" s="15"/>
-      <c r="U13" s="15"/>
-      <c r="V13" s="15"/>
-      <c r="W13" s="16"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="14"/>
+      <c r="T13" s="14"/>
+      <c r="U13" s="14"/>
+      <c r="V13" s="14"/>
+      <c r="W13" s="15"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
@@ -4835,17 +4876,17 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
-      <c r="O14" s="14" t="s">
+      <c r="O14" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="P14" s="15"/>
-      <c r="Q14" s="15"/>
-      <c r="R14" s="15"/>
-      <c r="S14" s="15"/>
-      <c r="T14" s="15"/>
-      <c r="U14" s="15"/>
-      <c r="V14" s="15"/>
-      <c r="W14" s="16"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14"/>
+      <c r="S14" s="14"/>
+      <c r="T14" s="14"/>
+      <c r="U14" s="14"/>
+      <c r="V14" s="14"/>
+      <c r="W14" s="15"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
@@ -4857,106 +4898,106 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-      <c r="O15" s="14" t="s">
+      <c r="O15" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="P15" s="15"/>
-      <c r="Q15" s="15"/>
-      <c r="R15" s="15"/>
-      <c r="S15" s="15"/>
-      <c r="T15" s="15"/>
-      <c r="U15" s="15"/>
-      <c r="V15" s="15"/>
-      <c r="W15" s="16"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="14"/>
+      <c r="U15" s="14"/>
+      <c r="V15" s="14"/>
+      <c r="W15" s="15"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="O16" s="14" t="s">
+      <c r="O16" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="P16" s="15"/>
-      <c r="Q16" s="15"/>
-      <c r="R16" s="15"/>
-      <c r="S16" s="15"/>
-      <c r="T16" s="15"/>
-      <c r="U16" s="15"/>
-      <c r="V16" s="15"/>
-      <c r="W16" s="16"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="14"/>
+      <c r="S16" s="14"/>
+      <c r="T16" s="14"/>
+      <c r="U16" s="14"/>
+      <c r="V16" s="14"/>
+      <c r="W16" s="15"/>
     </row>
     <row r="17" spans="10:24" x14ac:dyDescent="0.3">
-      <c r="O17" s="17" t="s">
+      <c r="O17" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="P17" s="18"/>
-      <c r="Q17" s="18"/>
-      <c r="R17" s="18"/>
-      <c r="S17" s="18"/>
-      <c r="T17" s="18"/>
-      <c r="U17" s="18"/>
-      <c r="V17" s="18"/>
-      <c r="W17" s="19"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="8"/>
+      <c r="T17" s="8"/>
+      <c r="U17" s="8"/>
+      <c r="V17" s="8"/>
+      <c r="W17" s="9"/>
     </row>
     <row r="20" spans="10:24" x14ac:dyDescent="0.3">
       <c r="J20" t="s">
         <v>31</v>
       </c>
-      <c r="K20" s="11" t="s">
+      <c r="K20" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="12"/>
-      <c r="P20" s="12"/>
-      <c r="Q20" s="12"/>
-      <c r="R20" s="12"/>
-      <c r="S20" s="12"/>
-      <c r="T20" s="12"/>
-      <c r="U20" s="13"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="11"/>
+      <c r="U20" s="12"/>
     </row>
     <row r="21" spans="10:24" x14ac:dyDescent="0.3">
-      <c r="K21" s="14" t="s">
+      <c r="K21" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="15"/>
-      <c r="O21" s="15"/>
-      <c r="P21" s="15"/>
-      <c r="Q21" s="15"/>
-      <c r="R21" s="15"/>
-      <c r="S21" s="15"/>
-      <c r="T21" s="15"/>
-      <c r="U21" s="16"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="14"/>
+      <c r="S21" s="14"/>
+      <c r="T21" s="14"/>
+      <c r="U21" s="15"/>
     </row>
     <row r="22" spans="10:24" x14ac:dyDescent="0.3">
-      <c r="K22" s="14" t="s">
+      <c r="K22" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="L22" s="15"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="15"/>
-      <c r="O22" s="15"/>
-      <c r="P22" s="15"/>
-      <c r="Q22" s="15"/>
-      <c r="R22" s="15"/>
-      <c r="S22" s="15"/>
-      <c r="T22" s="15"/>
-      <c r="U22" s="16"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="14"/>
+      <c r="R22" s="14"/>
+      <c r="S22" s="14"/>
+      <c r="T22" s="14"/>
+      <c r="U22" s="15"/>
     </row>
     <row r="23" spans="10:24" x14ac:dyDescent="0.3">
-      <c r="K23" s="17" t="s">
+      <c r="K23" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="L23" s="18"/>
-      <c r="M23" s="18"/>
-      <c r="N23" s="18"/>
-      <c r="O23" s="18"/>
-      <c r="P23" s="18"/>
-      <c r="Q23" s="18"/>
-      <c r="R23" s="18"/>
-      <c r="S23" s="18"/>
-      <c r="T23" s="18"/>
-      <c r="U23" s="19"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="8"/>
+      <c r="S23" s="8"/>
+      <c r="T23" s="8"/>
+      <c r="U23" s="9"/>
     </row>
     <row r="24" spans="10:24" x14ac:dyDescent="0.3">
       <c r="K24" s="2"/>
@@ -4975,94 +5016,94 @@
       <c r="J25" t="s">
         <v>32</v>
       </c>
-      <c r="K25" s="11" t="s">
+      <c r="K25" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="L25" s="12"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="12"/>
-      <c r="O25" s="12"/>
-      <c r="P25" s="12"/>
-      <c r="Q25" s="12"/>
-      <c r="R25" s="12"/>
-      <c r="S25" s="12"/>
-      <c r="T25" s="12"/>
-      <c r="U25" s="12"/>
-      <c r="V25" s="12"/>
-      <c r="W25" s="12"/>
-      <c r="X25" s="13"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="11"/>
+      <c r="S25" s="11"/>
+      <c r="T25" s="11"/>
+      <c r="U25" s="11"/>
+      <c r="V25" s="11"/>
+      <c r="W25" s="11"/>
+      <c r="X25" s="12"/>
     </row>
     <row r="26" spans="10:24" x14ac:dyDescent="0.3">
-      <c r="K26" s="14" t="s">
+      <c r="K26" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="L26" s="15"/>
-      <c r="M26" s="15"/>
-      <c r="N26" s="15"/>
-      <c r="O26" s="15"/>
-      <c r="P26" s="15"/>
-      <c r="Q26" s="15"/>
-      <c r="R26" s="15"/>
-      <c r="S26" s="15"/>
-      <c r="T26" s="15"/>
-      <c r="U26" s="15"/>
-      <c r="V26" s="15"/>
-      <c r="W26" s="15"/>
-      <c r="X26" s="16"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="14"/>
+      <c r="Q26" s="14"/>
+      <c r="R26" s="14"/>
+      <c r="S26" s="14"/>
+      <c r="T26" s="14"/>
+      <c r="U26" s="14"/>
+      <c r="V26" s="14"/>
+      <c r="W26" s="14"/>
+      <c r="X26" s="15"/>
     </row>
     <row r="27" spans="10:24" x14ac:dyDescent="0.3">
-      <c r="K27" s="14" t="s">
+      <c r="K27" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="L27" s="15"/>
-      <c r="M27" s="15"/>
-      <c r="N27" s="15"/>
-      <c r="O27" s="15"/>
-      <c r="P27" s="15"/>
-      <c r="Q27" s="15"/>
-      <c r="R27" s="15"/>
-      <c r="S27" s="15"/>
-      <c r="T27" s="15"/>
-      <c r="U27" s="15"/>
-      <c r="V27" s="15"/>
-      <c r="W27" s="15"/>
-      <c r="X27" s="16"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="14"/>
+      <c r="P27" s="14"/>
+      <c r="Q27" s="14"/>
+      <c r="R27" s="14"/>
+      <c r="S27" s="14"/>
+      <c r="T27" s="14"/>
+      <c r="U27" s="14"/>
+      <c r="V27" s="14"/>
+      <c r="W27" s="14"/>
+      <c r="X27" s="15"/>
     </row>
     <row r="28" spans="10:24" x14ac:dyDescent="0.3">
-      <c r="K28" s="17" t="s">
+      <c r="K28" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="L28" s="18"/>
-      <c r="M28" s="18"/>
-      <c r="N28" s="18"/>
-      <c r="O28" s="18"/>
-      <c r="P28" s="18"/>
-      <c r="Q28" s="18"/>
-      <c r="R28" s="18"/>
-      <c r="S28" s="18"/>
-      <c r="T28" s="18"/>
-      <c r="U28" s="18"/>
-      <c r="V28" s="18"/>
-      <c r="W28" s="18"/>
-      <c r="X28" s="19"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="8"/>
+      <c r="Q28" s="8"/>
+      <c r="R28" s="8"/>
+      <c r="S28" s="8"/>
+      <c r="T28" s="8"/>
+      <c r="U28" s="8"/>
+      <c r="V28" s="8"/>
+      <c r="W28" s="8"/>
+      <c r="X28" s="9"/>
     </row>
     <row r="33" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A33" s="24" t="s">
+      <c r="A33" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B33" s="24">
+      <c r="B33" s="5">
         <v>1</v>
       </c>
-      <c r="X33" s="23" t="s">
+      <c r="X33" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="Y33" s="23"/>
-      <c r="Z33" s="23"/>
-      <c r="AA33" s="23"/>
-      <c r="AB33" s="23"/>
-      <c r="AC33" s="23"/>
-      <c r="AD33" s="23"/>
-      <c r="AE33" s="23"/>
+      <c r="Y33" s="6"/>
+      <c r="Z33" s="6"/>
+      <c r="AA33" s="6"/>
+      <c r="AB33" s="6"/>
+      <c r="AC33" s="6"/>
+      <c r="AD33" s="6"/>
+      <c r="AE33" s="6"/>
     </row>
     <row r="34" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
@@ -13449,12 +13490,18 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="X33:AE33"/>
-    <mergeCell ref="K23:U23"/>
-    <mergeCell ref="K25:X25"/>
-    <mergeCell ref="K26:X26"/>
-    <mergeCell ref="K27:X27"/>
-    <mergeCell ref="K28:X28"/>
+    <mergeCell ref="O3:S3"/>
+    <mergeCell ref="O4:S4"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="O5:S5"/>
+    <mergeCell ref="O6:S6"/>
+    <mergeCell ref="O7:S7"/>
     <mergeCell ref="O17:W17"/>
     <mergeCell ref="K22:U22"/>
     <mergeCell ref="K20:U20"/>
@@ -13471,18 +13518,12 @@
     <mergeCell ref="K11:M11"/>
     <mergeCell ref="K12:M12"/>
     <mergeCell ref="K8:M8"/>
-    <mergeCell ref="K9:M9"/>
-    <mergeCell ref="K10:M10"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="K7:M7"/>
-    <mergeCell ref="O5:S5"/>
-    <mergeCell ref="O6:S6"/>
-    <mergeCell ref="O7:S7"/>
-    <mergeCell ref="O3:S3"/>
-    <mergeCell ref="O4:S4"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="X33:AE33"/>
+    <mergeCell ref="K23:U23"/>
+    <mergeCell ref="K25:X25"/>
+    <mergeCell ref="K26:X26"/>
+    <mergeCell ref="K27:X27"/>
+    <mergeCell ref="K28:X28"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
